--- a/dataCleaner/Case-MovingDataInRoom/results/tag1_02-14-1_dataByMinute.xlsx
+++ b/dataCleaner/Case-MovingDataInRoom/results/tag1_02-14-1_dataByMinute.xlsx
@@ -7655,13 +7655,13 @@
         <v>360</v>
       </c>
       <c r="B363" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
       </c>
       <c r="D363" s="1" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="E363" t="n">
         <v>2.269916666666667</v>
@@ -7675,13 +7675,13 @@
         <v>361</v>
       </c>
       <c r="B364" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C364" t="n">
         <v>1</v>
       </c>
       <c r="D364" s="1" t="n">
-        <v>0.5423611111111111</v>
+        <v>0.5840277777777778</v>
       </c>
       <c r="E364" t="n">
         <v>2.269916666666667</v>
@@ -7695,13 +7695,13 @@
         <v>362</v>
       </c>
       <c r="B365" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C365" t="n">
         <v>2</v>
       </c>
       <c r="D365" s="1" t="n">
-        <v>0.5430555555555555</v>
+        <v>0.5847222222222223</v>
       </c>
       <c r="E365" t="n">
         <v>2.269916666666667</v>
